--- a/meta_info.xlsx
+++ b/meta_info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shopify-rest-api\node-shopify-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\metafield-scheduler-job\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="meta_info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -39,31 +39,466 @@
     <t>type</t>
   </si>
   <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>Override_Warranty</t>
-  </si>
-  <si>
-    <t>Override Warranty</t>
-  </si>
-  <si>
     <t>multi_line_text_field</t>
   </si>
   <si>
-    <t>Override_Product_Information</t>
-  </si>
-  <si>
     <t>Good Product</t>
   </si>
   <si>
-    <t>Override Product Information</t>
+    <t>Override_Warranty1</t>
+  </si>
+  <si>
+    <t>Override_Warranty2</t>
+  </si>
+  <si>
+    <t>Override_Warranty3</t>
+  </si>
+  <si>
+    <t>Override_Warranty4</t>
+  </si>
+  <si>
+    <t>Override_Warranty5</t>
+  </si>
+  <si>
+    <t>Override_Warranty6</t>
+  </si>
+  <si>
+    <t>Override_Warranty7</t>
+  </si>
+  <si>
+    <t>Override_Warranty8</t>
+  </si>
+  <si>
+    <t>Override_Warranty9</t>
+  </si>
+  <si>
+    <t>Override_Warranty10</t>
+  </si>
+  <si>
+    <t>Override_Warranty11</t>
+  </si>
+  <si>
+    <t>Override_Warranty12</t>
+  </si>
+  <si>
+    <t>Override_Warranty13</t>
+  </si>
+  <si>
+    <t>Override_Warranty14</t>
+  </si>
+  <si>
+    <t>Override_Warranty15</t>
+  </si>
+  <si>
+    <t>Override_Warranty16</t>
+  </si>
+  <si>
+    <t>Override_Warranty17</t>
+  </si>
+  <si>
+    <t>Override_Warranty18</t>
+  </si>
+  <si>
+    <t>Override_Warranty19</t>
+  </si>
+  <si>
+    <t>Override_Warranty20</t>
+  </si>
+  <si>
+    <t>Override_Warranty21</t>
+  </si>
+  <si>
+    <t>Override_Warranty22</t>
+  </si>
+  <si>
+    <t>Override_Warranty23</t>
+  </si>
+  <si>
+    <t>Override_Warranty24</t>
+  </si>
+  <si>
+    <t>Override_Warranty25</t>
+  </si>
+  <si>
+    <t>Override_Warranty26</t>
+  </si>
+  <si>
+    <t>Override_Warranty27</t>
+  </si>
+  <si>
+    <t>Override_Warranty28</t>
+  </si>
+  <si>
+    <t>Override_Warranty29</t>
+  </si>
+  <si>
+    <t>Override_Warranty30</t>
+  </si>
+  <si>
+    <t>Override_Warranty31</t>
+  </si>
+  <si>
+    <t>Override_Warranty32</t>
+  </si>
+  <si>
+    <t>Override_Warranty33</t>
+  </si>
+  <si>
+    <t>Override_Warranty34</t>
+  </si>
+  <si>
+    <t>Override_Warranty35</t>
+  </si>
+  <si>
+    <t>Override_Warranty36</t>
+  </si>
+  <si>
+    <t>Override_Warranty37</t>
+  </si>
+  <si>
+    <t>Override_Warranty38</t>
+  </si>
+  <si>
+    <t>Override_Warranty39</t>
+  </si>
+  <si>
+    <t>Override_Warranty40</t>
+  </si>
+  <si>
+    <t>Override_Warranty41</t>
+  </si>
+  <si>
+    <t>Override_Warranty42</t>
+  </si>
+  <si>
+    <t>Override_Warranty43</t>
+  </si>
+  <si>
+    <t>Override_Warranty44</t>
+  </si>
+  <si>
+    <t>Override_Warranty45</t>
+  </si>
+  <si>
+    <t>Override_Warranty46</t>
+  </si>
+  <si>
+    <t>Override_Warranty47</t>
+  </si>
+  <si>
+    <t>Override_Warranty48</t>
+  </si>
+  <si>
+    <t>Override_Warranty49</t>
+  </si>
+  <si>
+    <t>Override_Warranty50</t>
+  </si>
+  <si>
+    <t>custom1</t>
+  </si>
+  <si>
+    <t>custom2</t>
+  </si>
+  <si>
+    <t>custom3</t>
+  </si>
+  <si>
+    <t>custom4</t>
+  </si>
+  <si>
+    <t>custom5</t>
+  </si>
+  <si>
+    <t>custom6</t>
+  </si>
+  <si>
+    <t>custom7</t>
+  </si>
+  <si>
+    <t>custom8</t>
+  </si>
+  <si>
+    <t>custom9</t>
+  </si>
+  <si>
+    <t>custom10</t>
+  </si>
+  <si>
+    <t>custom11</t>
+  </si>
+  <si>
+    <t>custom12</t>
+  </si>
+  <si>
+    <t>custom13</t>
+  </si>
+  <si>
+    <t>custom14</t>
+  </si>
+  <si>
+    <t>custom15</t>
+  </si>
+  <si>
+    <t>custom16</t>
+  </si>
+  <si>
+    <t>custom17</t>
+  </si>
+  <si>
+    <t>custom18</t>
+  </si>
+  <si>
+    <t>custom19</t>
+  </si>
+  <si>
+    <t>custom20</t>
+  </si>
+  <si>
+    <t>custom21</t>
+  </si>
+  <si>
+    <t>custom22</t>
+  </si>
+  <si>
+    <t>custom23</t>
+  </si>
+  <si>
+    <t>custom24</t>
+  </si>
+  <si>
+    <t>custom25</t>
+  </si>
+  <si>
+    <t>custom26</t>
+  </si>
+  <si>
+    <t>custom27</t>
+  </si>
+  <si>
+    <t>custom28</t>
+  </si>
+  <si>
+    <t>custom29</t>
+  </si>
+  <si>
+    <t>custom30</t>
+  </si>
+  <si>
+    <t>custom31</t>
+  </si>
+  <si>
+    <t>custom32</t>
+  </si>
+  <si>
+    <t>custom33</t>
+  </si>
+  <si>
+    <t>custom34</t>
+  </si>
+  <si>
+    <t>custom35</t>
+  </si>
+  <si>
+    <t>custom36</t>
+  </si>
+  <si>
+    <t>custom37</t>
+  </si>
+  <si>
+    <t>custom38</t>
+  </si>
+  <si>
+    <t>custom39</t>
+  </si>
+  <si>
+    <t>custom40</t>
+  </si>
+  <si>
+    <t>custom41</t>
+  </si>
+  <si>
+    <t>custom42</t>
+  </si>
+  <si>
+    <t>custom43</t>
+  </si>
+  <si>
+    <t>custom44</t>
+  </si>
+  <si>
+    <t>custom45</t>
+  </si>
+  <si>
+    <t>custom46</t>
+  </si>
+  <si>
+    <t>custom47</t>
+  </si>
+  <si>
+    <t>custom48</t>
+  </si>
+  <si>
+    <t>custom49</t>
+  </si>
+  <si>
+    <t>custom50</t>
+  </si>
+  <si>
+    <t>Override Warranty1</t>
+  </si>
+  <si>
+    <t>Override Warranty2</t>
+  </si>
+  <si>
+    <t>Override Warranty3</t>
+  </si>
+  <si>
+    <t>Override Warranty4</t>
+  </si>
+  <si>
+    <t>Override Warranty5</t>
+  </si>
+  <si>
+    <t>Override Warranty6</t>
+  </si>
+  <si>
+    <t>Override Warranty7</t>
+  </si>
+  <si>
+    <t>Override Warranty8</t>
+  </si>
+  <si>
+    <t>Override Warranty9</t>
+  </si>
+  <si>
+    <t>Override Warranty10</t>
+  </si>
+  <si>
+    <t>Override Warranty11</t>
+  </si>
+  <si>
+    <t>Override Warranty12</t>
+  </si>
+  <si>
+    <t>Override Warranty13</t>
+  </si>
+  <si>
+    <t>Override Warranty14</t>
+  </si>
+  <si>
+    <t>Override Warranty15</t>
+  </si>
+  <si>
+    <t>Override Warranty16</t>
+  </si>
+  <si>
+    <t>Override Warranty17</t>
+  </si>
+  <si>
+    <t>Override Warranty18</t>
+  </si>
+  <si>
+    <t>Override Warranty19</t>
+  </si>
+  <si>
+    <t>Override Warranty20</t>
+  </si>
+  <si>
+    <t>Override Warranty21</t>
+  </si>
+  <si>
+    <t>Override Warranty22</t>
+  </si>
+  <si>
+    <t>Override Warranty23</t>
+  </si>
+  <si>
+    <t>Override Warranty24</t>
+  </si>
+  <si>
+    <t>Override Warranty25</t>
+  </si>
+  <si>
+    <t>Override Warranty26</t>
+  </si>
+  <si>
+    <t>Override Warranty27</t>
+  </si>
+  <si>
+    <t>Override Warranty28</t>
+  </si>
+  <si>
+    <t>Override Warranty29</t>
+  </si>
+  <si>
+    <t>Override Warranty30</t>
+  </si>
+  <si>
+    <t>Override Warranty31</t>
+  </si>
+  <si>
+    <t>Override Warranty32</t>
+  </si>
+  <si>
+    <t>Override Warranty33</t>
+  </si>
+  <si>
+    <t>Override Warranty34</t>
+  </si>
+  <si>
+    <t>Override Warranty35</t>
+  </si>
+  <si>
+    <t>Override Warranty36</t>
+  </si>
+  <si>
+    <t>Override Warranty37</t>
+  </si>
+  <si>
+    <t>Override Warranty38</t>
+  </si>
+  <si>
+    <t>Override Warranty39</t>
+  </si>
+  <si>
+    <t>Override Warranty40</t>
+  </si>
+  <si>
+    <t>Override Warranty41</t>
+  </si>
+  <si>
+    <t>Override Warranty42</t>
+  </si>
+  <si>
+    <t>Override Warranty43</t>
+  </si>
+  <si>
+    <t>Override Warranty44</t>
+  </si>
+  <si>
+    <t>Override Warranty45</t>
+  </si>
+  <si>
+    <t>Override Warranty46</t>
+  </si>
+  <si>
+    <t>Override Warranty47</t>
+  </si>
+  <si>
+    <t>Override Warranty48</t>
+  </si>
+  <si>
+    <t>Override Warranty49</t>
+  </si>
+  <si>
+    <t>Override Warranty50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,23 +1300,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,84 +1336,1004 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>6902262300808</v>
+        <v>8139688706356</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>6907111145609</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6907111145609</v>
+        <v>8139688706356</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>6907111145609</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>8139688706356</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
